--- a/final_project/gru_gbrbm_H_div_2 (drop 0.1)/type2/pd_results_W5_H200_B16.xlsx
+++ b/final_project/gru_gbrbm_H_div_2 (drop 0.1)/type2/pd_results_W5_H200_B16.xlsx
@@ -502,25 +502,25 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.5487804878048781</v>
+        <v>0.5495495495495496</v>
       </c>
       <c r="B2" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.967741935483871</v>
+        <v>0.9838709677419355</v>
       </c>
       <c r="D2" t="n">
-        <v>0.01333333333333333</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5416666666666666</v>
+        <v>0.5446428571428571</v>
       </c>
       <c r="F2" t="n">
-        <v>0.7003891050583658</v>
+        <v>0.7052023121387284</v>
       </c>
       <c r="G2" t="n">
-        <v>0.4672619047619048</v>
+        <v>0.4880952380952381</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -528,19 +528,19 @@
         </is>
       </c>
       <c r="I2" t="n">
-        <v>0.1908703949389674</v>
+        <v>0.1916320233973489</v>
       </c>
       <c r="J2" t="n">
-        <v>2503.731737470142</v>
+        <v>2522.220622715</v>
       </c>
       <c r="K2" t="n">
-        <v>8745815.789043779</v>
+        <v>8966248.390875513</v>
       </c>
       <c r="L2" t="n">
-        <v>2957.332546238887</v>
+        <v>2994.369447959873</v>
       </c>
       <c r="M2" t="n">
-        <v>-0.6117498215021646</v>
+        <v>-0.6523729280510853</v>
       </c>
     </row>
   </sheetData>
